--- a/TC_Eassignment_Employer_IT.xlsx
+++ b/TC_Eassignment_Employer_IT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="112">
   <si>
     <t>Project Name</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>Windows 8,Php,Mysql,Godaddy</t>
+  </si>
+  <si>
+    <t>hjhjjh</t>
   </si>
 </sst>
 </file>
@@ -859,7 +862,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -978,7 +981,7 @@
         <v>94</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>

--- a/TC_Eassignment_Employer_IT.xlsx
+++ b/TC_Eassignment_Employer_IT.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="60" windowWidth="16215" windowHeight="7950"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -309,9 +309,6 @@
     <t>Candidate profile is view</t>
   </si>
   <si>
-    <t>Author Name: Mr. Yogesh Gondhali</t>
-  </si>
-  <si>
     <t>Approved By: Ms.</t>
   </si>
   <si>
@@ -324,9 +321,6 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>Review Name: Ms.Pranita Kulkarni</t>
-  </si>
-  <si>
     <t>Review Date: 4/5/2018</t>
   </si>
   <si>
@@ -370,6 +364,12 @@
   </si>
   <si>
     <t>Windows 8,Php,Mysql,Godaddy</t>
+  </si>
+  <si>
+    <t>Review Name:</t>
+  </si>
+  <si>
+    <t>Author Name: Mr. kshitij</t>
   </si>
 </sst>
 </file>
@@ -858,14 +858,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
@@ -975,7 +975,7 @@
     </row>
     <row r="7" spans="1:13" ht="15.75">
       <c r="A7" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>84</v>
@@ -997,7 +997,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1198,7 +1198,7 @@
         <v>27</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I17" s="20" t="s">
         <v>36</v>
@@ -1235,7 +1235,7 @@
         <v>27</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
@@ -1243,7 +1243,7 @@
         <v>50</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M18" s="20" t="s">
         <v>31</v>
@@ -1268,7 +1268,7 @@
         <v>27</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
@@ -1276,7 +1276,7 @@
         <v>51</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M19" s="20" t="s">
         <v>31</v>
@@ -1303,7 +1303,7 @@
         <v>27</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -1336,7 +1336,7 @@
         <v>27</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I21" s="20" t="s">
         <v>53</v>
@@ -1369,7 +1369,7 @@
         <v>27</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I22" s="20" t="s">
         <v>56</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I23" s="20" t="s">
         <v>56</v>
@@ -1439,7 +1439,7 @@
         <v>27</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I24" s="20" t="s">
         <v>72</v>
@@ -1474,7 +1474,7 @@
         <v>27</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I25" s="20" t="s">
         <v>77</v>
@@ -1507,7 +1507,7 @@
         <v>27</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I26" s="20" t="s">
         <v>81</v>
@@ -1540,7 +1540,7 @@
         <v>27</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I27" s="20" t="s">
         <v>87</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="35" spans="1:13" ht="15.75">
       <c r="A35" s="1" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="36" spans="1:13" ht="15.75">
       <c r="A36" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="37" spans="1:13" ht="15.75">
       <c r="A37" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="38" spans="1:13" ht="15.75">
       <c r="A38" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="39" spans="1:13" ht="15.75">
       <c r="A39" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1748,7 +1748,7 @@
     </row>
     <row r="40" spans="1:13" ht="15.75">
       <c r="A40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
